--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/19_Bolu_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/19_Bolu_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F21E76C-A7AD-46E6-88EA-17AAD197D3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E82EAF2A-0389-4C66-A189-415D297EF45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{D3AC6169-B855-4D3C-9CE6-1B0D53D19B66}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{21D6538A-1311-49F6-822D-C61F36EA60B5}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7FCE5776-4DE8-4912-B3F9-680B9D5090F5}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{74D5A99E-CD16-4232-9AA1-0E1AF6E5429A}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{F163CC1D-7195-40FF-871A-9B877A6B703F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6D5B703A-E7F4-4D3A-AFF4-6BF054BEDED9}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{DB4EE40A-CDB6-4BB8-A5C9-3CFF306C2D66}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{262E661A-5175-4CA3-8FD7-E8923B0BD3A2}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D50305CC-1B14-4E13-B9C2-5DD64B7BAD19}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{ED7BB810-1F2F-4091-8F6D-FFBD01C94BCE}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1CF87343-D765-448E-A1BA-183CCD29295D}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{4F05D06C-8FB9-4C6D-81D1-3D5B23F63843}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8256CEED-66AA-4189-92D6-9E83CE059B5F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{7595EA79-22C8-475E-8EEB-818DE776314C}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{B4EEE852-CE59-4607-AE42-8BE0057F5AD7}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3F1EAECE-1709-4C49-94AB-0D679DD7A984}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9085C60-CBAD-4568-9416-AFDC011D4E7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB46C4D-4A6E-4C35-8774-432757B63A7A}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2564,18 +2564,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12C6BF4B-A672-42D4-911E-5802676C3B1F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C8396755-B23B-422A-BD9A-AB3A3A2FE93F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EE6F31E8-BF4D-4029-99D5-4CDF638D69EF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A7828229-3FED-4EEA-AEB7-F709DC335D16}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{BEF675ED-7D4A-4CA3-9BD5-DFDC178B0721}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0F6962C6-3E91-4859-B976-67177DFA1661}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5F1E394F-4029-4ABE-9C59-CDEE05794C5C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A6C478AA-E5A4-487C-9254-DE5911B13DA1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{02C8E5EA-6A4F-49D0-9C9C-D0311B808646}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B81B4F20-E408-4F61-95FD-71D2F7E79D59}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A852C5EF-A460-4C21-95AE-5A9112941121}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{528562C2-66F7-472C-AE52-8235F0495A7A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D000B2F6-4648-4D3A-A7BE-39221BB5D4CF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49B839FA-32C6-4A26-ACA6-1467E4C38683}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{59D3112A-B2EB-4459-9078-C2711B41A44C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DAE34ADE-DD8D-44A7-9DD3-36A68B746695}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{FCDC1B7E-F36F-47D4-B935-0FA27030F64C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{14C16195-5ED9-4E27-BFE6-44911709A144}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9BA5973A-83B2-43D2-A418-912D6D43E9C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1167132D-E72D-4E6A-9B95-02533032BEE7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{467E2607-091C-4CBC-B20C-F02A2ECB0C40}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D9EBD63B-BCAD-47C8-9117-ACCC02F0838B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D77CDD4-A725-415C-AA1B-9BD5F8137559}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4197717E-0F92-42ED-945A-C180D995C162}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2588,7 +2588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3B8B31-2A15-4431-B99B-6E7B28D3E516}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7275EC-ABF7-45DF-8B9F-D4A0BBEF1DF1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3809,18 +3809,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B375364-BF12-4E05-8C22-61CD6C583CBA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7D87F31B-DA90-4C87-9708-89C369E8FA65}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7D63A5D0-CD92-4F22-8A91-7EDE35DA3B53}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{11CA9E64-4258-4565-8E07-2C32504ED581}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7E836302-7353-45A6-8417-C0E2DBDA1854}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6DF0B0A9-FA20-4FC3-A09B-F80965C46218}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{170DA2B6-9B7A-450E-8981-58F89635E811}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BD790F32-0B91-4652-9FD9-596A232F03D5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{60AF4874-71CB-4D0E-92B8-E5A6DE34526C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{70659EEE-644B-4477-91AB-BDF28FB64917}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CFA6D0BD-D9C5-4330-9AC1-30315C5C4E38}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0CFADE70-222B-4EAE-AE6E-75910A034DBA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E35125BE-9B9C-4FA2-92ED-45A5DEC0B734}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{078717A9-986C-40E8-9FB5-698B1DBD987C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CA89796A-7E9F-4B42-82C1-FA83F9A83B78}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D0403D1D-55EE-44D7-9B1B-87A39B6DCAD7}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{E1E31F15-18BF-4FE5-99D7-EE268EB1B6BF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1C6078CB-7C83-41ED-A195-1AB66B10CFEF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8787C711-7552-4D29-B8B1-C22E5AF8ADB5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F34A2239-076D-418A-AEF4-FF3CFB994214}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A0A9687-77FE-4310-A2D9-53EC00ECA06D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FDC1A5E1-87DA-4706-9F2B-538A27289067}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D82EDCA7-0159-4EFA-B2D3-B20CF714FE4E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E546B1D-23F6-4BB6-8637-6441AAB981D7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3833,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F7465-88F0-49BB-AA66-CC4EF28769BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FD2611-95F7-42C6-935F-507B2962E035}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5046,18 +5046,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{436C5C34-D4A5-4533-9274-902731EF8798}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{38BB7252-524E-4019-903B-9AA3DFDABFEA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D1F97ECF-A37A-446A-97CF-FB4B0624350C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{40F28C9B-6BF0-4598-975E-D4C30DD3B213}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0AA4DF41-A197-49FD-B417-DEDC2877BAA3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DEA36F17-93B5-4EE2-9E75-0D90B4868A66}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{910BCA3D-CE11-444F-ABBD-2FD23B90B0F3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{96247BE9-FD8D-4EDD-8810-3EAA75FBF07C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6678EBAD-C987-4C7B-9E40-393F56743493}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{502DC3F0-839D-48C7-AD5A-86609A4D6996}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0892A548-C1BD-46A3-A9C8-568ADE0AB27A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{30F629A9-332D-458F-A4AB-1C99A1E2C497}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00D306CF-98B6-45E5-BFB9-6E991BAF7D2C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B4DBD89-9A47-45CB-9A21-845DBB14C524}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D9C9237E-E1C7-4D18-860B-DF4C689C42EB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{08390101-EF8E-4656-9EF0-3F7F314DCBDD}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{27E09607-36E8-44B0-9254-5BF047480D91}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{588D2BC2-7BED-44E4-B42B-8F1834390B6A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB1C733E-0703-4FB0-BD9C-65ED4A5020B2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4F0B60E8-C388-4B61-83AB-6BB746778E25}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{752F594F-8047-4592-A79C-241DFACF279D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61C968CD-6812-4C2E-B1BE-7975651EDFF4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F55C29F6-5374-4BB9-BDB1-C15AD221DF6D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC9CFCD2-87F9-4C66-9915-9939D39C4266}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5070,7 +5070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4ED32E-D6A3-4CB2-BFF3-0B82F0B1A8E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CB958B-C8A7-48D8-820E-57B6B15C23DC}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6280,18 +6280,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E726A46-FCF2-463E-81E6-2D169033E96C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7401F3A5-DE1A-44E7-B4B2-35DC98FD04B7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{46333300-B226-4603-B910-CBC11940F9BB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8C3603CA-AE60-4B1B-B9D6-27EEEF3B0545}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{02B09C2C-F07A-4AB8-81C6-269F8FFF56EA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AC733B6E-CCDB-4958-A336-38EB40D4661C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2289B3E4-F604-48B4-8E6D-44AA7C8B3C24}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AF710061-78FF-49D3-8DC7-1735D5D9DEA5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A91B51A-3A5B-487C-87F3-70FBE672E7A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{52D3F83E-FC65-40E0-A69B-3BEE465C0548}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F1DF8F1B-A87B-44ED-8330-87A82F31F583}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{55DEB054-E8D3-47B5-9965-F2A0D7561BF7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B0168BA6-E629-439F-9082-F1517CA02E64}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E834B08-5465-4D14-921B-862B927F0F7C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0A1F69DA-BC68-4211-AEDA-6E6FD521E37A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0686584F-3800-480B-8786-DAEBC98F35B3}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F7FB6D03-79C8-40E5-8EA2-0CE32BB9BD62}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1D4E9EA8-CE6E-47B9-B042-1F3CA9A8A92C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC6650C8-D82C-484D-A62A-ECD4F96A334A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EFD059CB-78C2-46BA-9B89-5ECAB6DE3329}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C2E7D97-CDA7-4BCB-A987-6BE8F9D0D194}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{92E977BE-1253-4467-ABC7-E02390FE3CE1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{19AD052C-E079-4A91-8516-B99EA1893267}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{658C56D8-BB67-4C58-BB40-2AED7E538532}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6304,7 +6304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908CA726-5646-4290-84CA-356BC3550BE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8E3C20-5621-45B5-AC14-CD6A74D35C4A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7537,18 +7537,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C8FCA7E4-DD7C-4A11-B691-B113EA1E857E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5B64F748-F5BF-4B06-80CE-6542996CE060}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F345FAF2-DFF6-4CF6-8173-D99A5D95AE62}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{04987987-4651-483F-B23F-6FA60C03E9D0}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B22A2C85-E1D0-4AD8-829A-9529D04A47A2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E69BB11-A7B7-4FC7-A7E8-D68F7EC00C6A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A79B40C-ADCB-490C-B844-CE4DC0B80039}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C155BF4F-38F1-46E4-A658-D4912CE5D60D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4540C66D-148C-445E-8BC9-E9C3271C682E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{047FDC42-C5FB-4F15-9B78-565EAC02572D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F328F586-1897-4EE4-9F05-E655A4060253}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5807822B-C4C4-4940-9963-3E3536946A76}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8CC50C64-5438-4E09-A0FC-79CAD7F1EA92}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9E78E1C-CBEF-4606-815E-57EFA6494848}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{55245084-3413-4135-8199-06C00A8C2CFC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{28D24951-5979-4481-9D1B-D21A89414FEA}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{03D3C050-A1D0-4339-8DBC-90DBDA4EDDA3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5D02311F-3632-49CA-AF33-1EFB95ED13E0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{92831915-4C3D-410C-8672-8C96308669AD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5019CCD9-F8CD-4B0A-80D5-C4716A83041C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CDC1F803-F524-437C-AEAC-EA03D4A3A3A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F7818CFF-3A37-450F-A57F-C467AB492F53}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{395AA6F4-6C43-411B-A233-2FAF48AF8833}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B9B0359B-7EE3-47E3-9863-6D18D32CB223}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7561,7 +7561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDCBE83-9199-48B1-AE9B-239A97A7A6CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9521A2B2-377D-4DAD-850C-3BBD3F65AC98}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8794,18 +8794,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E94A84D2-307F-47FC-8C38-31EF3EC11285}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8BD53D18-8177-43DF-8E5A-27F5855A5689}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1A475F4D-23FB-4F38-94EB-2474BFB161BA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B22420EC-07DC-497F-B902-D60E9CFBFBFF}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{24C85720-D58D-413C-8E82-F77D062A93C5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3C788620-021B-484C-A871-139522835646}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7AF80590-366E-4AB5-A5BC-5FD67CFAAB06}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2864D6A8-800E-4150-9E53-C7E873463EA8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66A01F3C-7476-4A73-ADD7-015E9F4D5BBA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C6EB521-B812-40D9-98BD-F372F84C588E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3B137AA9-A240-4A64-930D-C2C115A8F44E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13ACAB1B-AA26-44DB-8562-DB061E6AE0EE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E4D80A1-7C2E-41DB-AE2A-D2D2DCC86E7C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{09C26948-5043-4E7C-8EED-930E4748A43D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E027C589-96B7-4CA0-81F4-FBEAFBCF1F1F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0E45E435-140A-424A-9227-600D5C863634}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8AA5D0AD-03FE-466A-9ADD-63FFF5C627AD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{569CEBF9-B509-454A-9692-B5948D236B7D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E428A23B-C782-414D-A9FB-02461C80E322}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{488691E6-3821-4A40-A8B4-49E8BE32C54F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1FC542D6-425A-4B44-B88C-742F4080B75D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{21158EBF-4606-4F8F-B06D-6A5C2B367541}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6372665B-BCD9-4127-BCEE-BF819B323A31}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AA369C3A-72CA-4D47-BCB5-6FB333AE75EB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8818,7 +8818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBB2891-7F2F-4E91-B8A8-D581BA38F505}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCCB1EA-2BDD-48A9-83A8-413102545A29}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10051,18 +10051,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0D317C65-D8AC-4D26-BA4F-7B1370215EE3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1ABD69D9-3BA2-45AF-AD8B-2760A599A1C3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B192FC40-95D3-42CB-9D61-5230E63A4750}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A067064F-EA89-4D54-8CE3-298233408B86}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{96C4EDFF-22D9-49D1-80D6-E1817EFB9C24}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1F7F4B82-4D24-4602-A304-6CF0E6D8B529}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B60B2A2D-1CF2-4490-A63D-F34D02F1AA4D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{81548E51-7C47-44CE-BFA6-D4A66B656B9D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ABC65FDA-A45F-423F-8E4F-B6E98F9782B3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C986057-5F91-47DB-97F3-1B9D18420C35}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23370815-AC4C-4D88-BCE0-99024ACD3200}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0B5417E8-8648-4EA1-B4E4-B1031580CFBB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{62D5CB85-B820-4031-BF74-68659E00EAF8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{81AF3CE9-5DF0-4C57-83B5-7F0BB6C91AD5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F41E6C72-987D-4F19-ADC7-F56C1951840A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4621167C-D6D6-41BB-BD6D-0ED25CA1CCF7}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CDAD03ED-18D0-4835-A1D8-E908B4EE2479}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{50865A85-1EFD-477A-9D3D-A45E4C100D60}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BAACD71D-CD63-4176-821C-5888E6F724DB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{72846273-C55D-498C-B806-2B3F9F838D4C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A43AC2A2-6FD1-4BCA-A431-5036E0EF230B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7A5F575A-3511-47E8-8DAE-6F77337BA17B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CD847B35-9196-4CE6-A360-E97C0987CBA5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3499FA70-F4B5-44AA-A4C2-755D6A10FCB3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10075,7 +10075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604438B8-CF35-4451-BC85-451700EE4C0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4AF55A-E6C8-48F8-AE90-04B74C7EAD49}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11308,18 +11308,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CFD79326-15CA-41B3-8D0B-CD3B5352EF14}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F76AAB2E-2957-4E8F-BE94-114D3AAB6175}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{54E89484-BE9B-4C56-AC30-F1EC2B7DE0AE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{67BFC052-873F-4E8B-BE3A-1C8977F78B49}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{E1EDFDC5-279A-4177-9CE1-7864DC0E6724}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BC3DB092-C5C9-42FA-96D3-DEEE2C92789E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1E72B112-C081-4F7F-9CD4-ACD8E6672D51}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C888A756-3A51-4F44-9F3B-FCCEEF39371F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD1219D8-AA01-472E-941B-EEBF5AA7145F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8E80D45E-28DA-42F5-B388-60DCB9653E87}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B1526AD-9DE1-42A2-8B67-FBBF86CF2E05}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6442016B-3746-4FF4-935F-D010A795AE48}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{722A4E14-D192-4908-9366-DE27BE9B3D28}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5533A9F2-78A9-4812-8977-9AFAE28447AB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9A9312A8-D6D5-4072-BC50-8E6315E82B99}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7A83470A-DB39-4BAC-B519-FAF96DCF1EC7}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F9CBE40C-F5E3-4950-8509-6B3D1D7CBEDE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4C9C9888-E70A-4C1B-906B-1D07A5385E61}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32726E2B-5818-4B37-92E8-05B75FFC8C2F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D94D2092-B957-444B-BD10-D939334F54DE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{60DB375A-3077-413E-86EA-3CA4CB1E6F0D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{64ED7301-AF14-4F90-B74C-FDABC8C7827C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{795D7F06-7F29-4778-975E-E05573C47FDD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B49895A-0692-47AA-87C3-B7F0427D1D4C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11332,7 +11332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E778BA-5BB1-4539-8190-CD824E887FE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD46AAF9-53B3-4786-9D94-86517324138A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12565,18 +12565,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4FBC6407-7FAB-42D1-8DE8-8AB329955BEF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{88B74A0B-EED3-46C7-83BA-3D1334D74B8F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{700E9F0D-484D-4B09-AC05-97A8B2C8E19A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EAE6CD5E-6254-4E5A-8CFA-307AFA293BAD}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B4501A86-5E49-4F62-B9FF-3C2D526A9369}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{31466FCC-59DA-40A4-BFEE-B77C50E0EB25}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{089CC5E1-9A4E-458F-BC72-D67881F72820}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B1E885B8-01F2-4B6E-A0E5-D59420747090}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67E751C4-8920-4B9D-B79B-76864F56C497}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A360554F-686F-441D-A420-46E170F65CB3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A7E073EB-333C-4A76-9C51-DBCECC644D1B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{572CC7A7-3661-486E-9F1E-79360F2A4BC7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C6EB8E5-280F-47A8-8077-E710FFB6FDF9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{013229AD-6219-4945-ACA8-1F99B9BEE357}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FEF90074-20DA-4BAC-B79A-8FF379B3F01E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0B562F79-3B2A-4A74-9691-61346DA93D7C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{321B52EB-2C5B-4336-B3FD-C66A649E729D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DDE71219-1EED-41AC-BABF-E28460D72F73}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CDD24E9C-3D64-48C0-8122-1FC0D9655E51}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3793078C-32F6-4F0B-BEFE-A7086D35C0C0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F4D4D29-F444-40E3-B0ED-61C003FCC34E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CCD29AB4-BD31-45E9-9AE3-9EB2308ED645}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2978AFB-4A2F-4554-8BCA-95496C416575}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{01F5A26A-E1FD-4C5E-8FD6-D62867AB59A3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12589,7 +12589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E9DA5D-EABF-466C-97D1-5C38B5631086}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C9EB10-E43A-4258-8CE4-E6FC4B7C9CFE}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13818,18 +13818,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E11A61F1-94CC-41B9-9D60-12D9249A57CF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9CD769D9-CA64-4654-9D87-22EACCA440FF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3C59A6A1-B534-4340-A152-826568B7D95B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{01932870-A677-45DB-A8C5-F165D04D431B}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5B9564FD-B2E6-497D-B2CA-A427B6946EAA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{34BC8D49-A083-4970-A2A0-CE35E8862CC8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7431F6AD-822D-4855-9646-27D6975CF5E1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B6E41E3D-503C-4F0A-9ADD-F8C483B1D988}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7981AD9B-8F48-4521-BE46-9B0EA5DD0913}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6F5DFE4A-1EFC-4142-9AE0-17F98F796ABD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8ECF5B5-1D7A-4F0F-8C49-8A04C7157698}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1FA8DA7F-3AE8-46D1-9891-AF7FA15F6811}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34FF2146-AA9C-48C7-BF62-65E5A82AAE2F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2712DE04-9F96-46FB-A2F0-E02D07280C31}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F2965BAA-CC8C-4D13-9CB0-656E1E80B600}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9E46C08F-8101-42FA-9876-E480EB25A9C4}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AA763B43-599E-4665-B482-DCF8641049FC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9254D4DC-9A39-46B9-B64C-617FC207A22D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD33C945-CE79-4D1D-9FA2-5112A171333F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3FAF88DA-7021-44A6-831C-CFB0CD46BF51}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66366F6E-80D1-4C40-9EB5-C7809C796C2D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C3574581-9EA6-4990-8223-3CCF0BA4A298}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9EC4F510-B065-425C-828B-DD37D079DA13}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1165727A-6738-4D3E-9336-676EC275C718}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13842,7 +13842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272497B9-FEB3-4AC7-9D6B-1DFCE43E61CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75211E30-07BA-464F-9CEE-05FE73A05056}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15071,18 +15071,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{407A376D-D65F-4BC0-A84F-25887ABE2061}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4992268D-F7B4-48C8-BA07-2E5E6DAB3028}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{95673567-D68B-495F-99C8-0C1F84D401B0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{168D23C2-0148-4D92-84C3-D62BB7F21F36}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8EEF7D62-D5D3-4E43-94FD-B138AF779F1E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A19E224F-0729-4B61-A156-323E3130F9A0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{64399934-6380-42B0-8EA3-211389965D8D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CAA24F45-496A-4A5F-A731-1B4A620618A2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C8B2153-FDEE-493B-8C08-E9555BE74DF4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A5FF7819-5E70-4B27-AE71-7C99CF568F8A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{744D8AA5-5C9E-42F9-95A9-159883DC5C2C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82A0AC87-2756-4B36-80AE-97B67B9CD6C4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E922D27-1CF0-4A7D-829E-2AFA3E1E92E9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5B605807-01D0-43D9-9998-3810F7B80493}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B5BBC368-E3AB-4CDE-B425-4232F7AB78AE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{20D89196-1399-4DC2-B25C-5C1962E95707}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3788C291-245D-456D-AD68-AB78AE94EDA1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7D1B85CD-DE1F-442D-AE30-54EE87566512}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E956EB83-9815-4C28-B306-2FB85DDD800D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B474EE33-1079-4D01-A29A-48910588F7EF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31273003-E170-4D58-9B91-3638BAC6E516}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C282E45-54A7-43A1-9677-7365F5AB33DB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CBB5C849-997B-4B12-9953-F7ECBA92CB8B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2E71AEE-AB74-41CD-8E7E-840D2FEA5129}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15095,7 +15095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7860FD-4815-422C-ABC5-776F3F63F3EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D3328A-4215-4F9F-B180-30EB05A62589}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16324,18 +16324,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1FEEA011-DFAC-4C6D-BA35-BCE0B9C2E6A6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A08618B-BEB8-4F55-B2E4-44CF86C2026D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{85885946-F32B-434F-982B-E3649C409E69}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C5A0DE64-C49A-40F4-AE81-E7F694902093}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AB351E86-C4AE-4FA2-8E9D-D318985E0F24}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{07B61ADE-B6BB-43C6-BDE6-E34465C268FA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{57347655-75D6-48C4-AEBA-34C4629555E9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C3246518-2954-40FA-9AC0-6AB449F78AF8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A94FB452-D2F1-45EE-AFB3-4F17FAEA822C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DA85AAAE-3C8F-4B53-92D4-58F6E768C642}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F3EF5995-7441-432A-B2C6-9CB16E694291}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82521FF8-DCC2-469B-8D77-AA7B3CD0063E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F6BF49CF-4196-4E5C-9E13-870B0D947C91}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0B4DB203-DA20-4B9B-B1CD-424AE1D18864}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DE757C5C-0F8C-4FCF-A0B9-3D809441CC3F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE4720A0-5506-4739-8CA6-E2F841AAA17D}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{09BB0480-04C9-4A41-A9DA-CAF57EB377E9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BFDE1380-8DC8-4B93-A6EC-F532B300B515}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{975D4DB4-0566-42C9-AB82-81176BE26ECE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{22F9E1ED-8AFE-4461-9ADE-D6307A6F6652}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C606189-9F0F-4AE6-885F-E8460D2293AD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8079FAAC-A068-4109-A9BC-3E14BF0F7654}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{465B8058-B767-48BD-9718-63DB2616C8AB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E4152AFD-E533-4552-910F-11311C8BC693}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
